--- a/Inputs/JRC_EU_TIMES/ProRes1/TIMES_Energy_SUN.xlsx
+++ b/Inputs/JRC_EU_TIMES/ProRes1/TIMES_Energy_SUN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\OneDrive - Politecnico di Milano\Università\Tesi (OneDrive)\Article PROres1 coupling\JRC-EU-TIMES Data\PROres\PROres raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10459618_polimi_it/Documents/Università/Tesi (OneDrive)/Final Simulations Dispa-SET/JRC-EU-TIMES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{5ABC35BE-1E0B-4B94-A39C-226E696D65CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{09199854-FDB2-42D8-BA4D-6C11128E6959}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DE2DD54-727D-45C2-B20B-DA17EEE4B9DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{192BDB02-CB62-46EA-ABB4-FF0875544807}"/>
+    <workbookView xWindow="2070" yWindow="1125" windowWidth="14670" windowHeight="8325" xr2:uid="{34533E0B-9EA1-4774-A379-B5049B802369}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,15 +35,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
-    <t>Unit - activity1  /  Period  /  Process Description1</t>
+    <t>Period  /  Unit - activity1  /  Process Description1</t>
+  </si>
+  <si>
+    <t>2050</t>
   </si>
   <si>
     <t>PJ</t>
   </si>
   <si>
-    <t>2050</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -111,6 +113,9 @@
     <t>LV</t>
   </si>
   <si>
+    <t>MT</t>
+  </si>
+  <si>
     <t>NL</t>
   </si>
   <si>
@@ -136,9 +141,6 @@
   </si>
   <si>
     <t>UK</t>
-  </si>
-  <si>
-    <t>MT</t>
   </si>
 </sst>
 </file>
@@ -520,12 +522,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58131A8F-D3E4-4F61-B93F-3B9C6BDA38D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D5EC47-658E-4D97-82BF-B802F346FCEF}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -766,7 +766,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
         <v>3.5649999999999999</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" s="1">
         <v>187.142</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1">
         <v>18.523</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1">
         <v>23.024000000000001</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1">
         <v>174.22399999999999</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1">
         <v>46.993000000000002</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30" s="1">
         <v>148.36199999999999</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
         <v>10.661</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" s="1">
         <v>65.426000000000002</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <v>323.20999999999998</v>
@@ -874,17 +874,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BA58F2CACE833A4EAC3C2718D7553EBC" ma:contentTypeVersion="11" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="aec9d4db9f94a4e7a09eb83c0739bc84">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7880897e-52c6-4ffd-85c8-5c6950347fc0" xmlns:ns4="8c824e80-41b8-4a07-a4d9-9d9814734933" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f498252f696c0305676dba07191acd81" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BA58F2CACE833A4EAC3C2718D7553EBC" ma:contentTypeVersion="13" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="bb63102ff0d9eda75d0b4de88b67103d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7880897e-52c6-4ffd-85c8-5c6950347fc0" xmlns:ns4="8c824e80-41b8-4a07-a4d9-9d9814734933" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d343f4382375feb5aaefc2a566ff9801" ns3:_="" ns4:_="">
     <xsd:import namespace="7880897e-52c6-4ffd-85c8-5c6950347fc0"/>
     <xsd:import namespace="8c824e80-41b8-4a07-a4d9-9d9814734933"/>
     <xsd:element name="properties">
@@ -904,6 +895,8 @@
                 <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -989,6 +982,18 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1091,6 +1096,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1098,15 +1112,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D835160-098B-43E5-AFE4-72DF79765915}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C41E67EF-6061-4177-ADBD-0782DDC52E05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD4687C3-7887-4679-B2B7-1B5213CCFF8B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1124,8 +1130,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A6DFAF6-2265-4787-B903-0ADA9F37E865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D66F5DE-5D75-48E8-81CC-B9F20B777C6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F9D5FB3-CE72-4D3C-BF31-77507246907C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
